--- a/biology/Botanique/Cyperaceae/Cyperaceae.xlsx
+++ b/biology/Botanique/Cyperaceae/Cyperaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cyperaceae (Cypéracées) sont une famille botanique de plantes de l'ordre classique des Cyperales. Cependant en classification phylogénétique APG II (2003)[1] et en classification phylogénétique APG III (2009)[2] cet ordre n'existe pas et ces familles sont placées dans l'ordre des Poales, regroupant notamment les carex (ou laîches) et les linaigrettes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cyperaceae (Cypéracées) sont une famille botanique de plantes de l'ordre classique des Cyperales. Cependant en classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009) cet ordre n'existe pas et ces familles sont placées dans l'ordre des Poales, regroupant notamment les carex (ou laîches) et les linaigrettes.
 Ce sont des plantes monocotylédones, herbacées, en touffe, souvent vivaces, aux feuilles comme celles des joncs ou en gouttière, à l'inflorescence parfois unisexuée (épis males et femelles séparés) ; leur tige est fréquemment de section triangulaire.
 Le fruit est un akène.
 Cette famille comprend 5 000 espèces réparties en plus d'une centaine de genres répandus à travers le monde.
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Cyperus forme latinisée du nom grec du souchet comestible κύπερος / kyperos[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Cyperus forme latinisée du nom grec du souchet comestible κύπερος / kyperos. 
 </t>
         </is>
       </c>
@@ -548,7 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[4]
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (20 avr. 2010)[4]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 genre Actinoschoenus  Benth. (1881)
 genre Actinoscirpus  (Ohwi) R.W.Haines &amp; Lye (1971)
 genre Afrotrilepis  (Gilg) J.Raynal (1963)
@@ -567,7 +587,43 @@
 genre Capeobolus  Browning (1999)
 genre Capitularina  J.Kern (1974)
 genre Carex  L. (1753)
-Selon NCBI  (20 avr. 2010)[5]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cyperaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyperaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 avr. 2010)[5]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 genre Abildgaardia
 genre Actinoschoenus
 genre Actinoscirpus
@@ -664,7 +720,43 @@
 genre Volkiella
 genre Websteria
 genre Zameioscirpus
-Selon Angiosperm Phylogeny Website                        (21 mai 2010)[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cyperaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyperaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (21 mai 2010)[6]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 genre Actinoschoenus Benth.
 genre Actinoscirpus (Ohwi) R.W.Haines &amp; Lye
 genre Afrotrilepis (Gilly) J.Raynal
@@ -767,7 +859,43 @@
 genre Uncinia Pers.
 genre Volkiella Merxm. &amp; Czech
 genre Websteria S.H.Wright
-Selon DELTA Angio           (2 juillet 2017)[7]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cyperaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyperaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Selon DELTA Angio           (2 juillet 2017)[7]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 genre Abildgaardia
 genre Acriulus
 genre Actinoschoenus
@@ -890,7 +1018,43 @@
 genre Vesicarex
 genre Volkiella
 genre Websteria
-Selon ITIS      (2 juillet 2017)[8]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cyperaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyperaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (2 juillet 2017)[8]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 genre Abildgaardia Vahl
 genre Amphiscirpus Oteng-Yeb.
 genre Blysmopsis Oteng-Yeb.
